--- a/biology/Médecine/Direction_générale_de_la_Santé/Direction_générale_de_la_Santé.xlsx
+++ b/biology/Médecine/Direction_générale_de_la_Santé/Direction_générale_de_la_Santé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_Sant%C3%A9</t>
+          <t>Direction_générale_de_la_Santé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La direction générale de la Santé (DGS) est l'une des directions du ministère de la Santé français, chargée de la préparation et de la mise en œuvre de la politique de santé publique, de la veille et de la sécurité sanitaire.
 Le Docteur Grégory Emery est le directeur général de la Santé depuis le 20 septembre 2023.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_Sant%C3%A9</t>
+          <t>Direction_générale_de_la_Santé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La direction de l’hygiène publique et celle de l'hygiène sociale fusionnent en 1956 pour devenir la direction générale de la Santé.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_Sant%C3%A9</t>
+          <t>Direction_générale_de_la_Santé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ses missions sont fixées par l'article D1421-1 du code de la santé publique[1]. Elle est chargée de préparer la politique de santé publique et de contribuer à sa mise en œuvre. Son action se poursuit à travers quatre grands objectifs :    
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ses missions sont fixées par l'article D1421-1 du code de la santé publique. Elle est chargée de préparer la politique de santé publique et de contribuer à sa mise en œuvre. Son action se poursuit à travers quatre grands objectifs :    
 préserver et améliorer l’état de santé des citoyens ;
 protéger la population des menaces sanitaires ;
 garantir la qualité, la sécurité et l’égalité dans l’accès au système de santé ;
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_Sant%C3%A9</t>
+          <t>Direction_générale_de_la_Santé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,13 +593,15 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'organisation de la direction est déterminée par des arrêtés[2] s'agissant des missions. Elle comprend :   
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'organisation de la direction est déterminée par des arrêtés s'agissant des missions. Elle comprend :   
 la sous-direction « Santé des populations et Prévention des maladies chroniques » ;
 la sous-direction « Politiques de santé et Qualité des pratiques et des soins » ;
-la sous-direction « Prévention des risques liés à l'environnement et à l'alimentation »[3] ;
-la sous-direction « Veille et sécurité sanitaire »[4] ;
+la sous-direction « Prévention des risques liés à l'environnement et à l'alimentation » ;
+la sous-direction « Veille et sécurité sanitaire » ;
 un secrétariat général ;
 la mission « Stratégie et Recherche » ;
 la mission « Affaires européennes et internationales » ;
@@ -613,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_Sant%C3%A9</t>
+          <t>Direction_générale_de_la_Santé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,20 +649,57 @@
           <t>Direction générale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le directeur général de la Santé est nommé par décret du président de la République. Il en est de même pour le directeur général adjoint qui le seconde. Le directeur général de la Santé, assisté par le directeur général adjoint, dirige et coordonne l'ensemble des sous-directions et missions énumérées ci-dessus. Il exerce également la fonction de haut fonctionnaire de défense et de sécurité adjoint, chargé de la défense et de la sécurité sanitaire[5].
-Directeurs généraux de la Santé
-1956-1964 : Pr Eugène Aujaleu (premier directeur général de la Santé)[a],[6] ;
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le directeur général de la Santé est nommé par décret du président de la République. Il en est de même pour le directeur général adjoint qui le seconde. Le directeur général de la Santé, assisté par le directeur général adjoint, dirige et coordonne l'ensemble des sous-directions et missions énumérées ci-dessus. Il exerce également la fonction de haut fonctionnaire de défense et de sécurité adjoint, chargé de la défense et de la sécurité sanitaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Direction_générale_de_la_Santé</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Direction_g%C3%A9n%C3%A9rale_de_la_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Direction générale</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Directeurs généraux de la Santé</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1956-1964 : Pr Eugène Aujaleu (premier directeur général de la Santé)[a], ;
 1964-1966 : Dr Pierre Robin[b]
 1966-1970 : Pr Pierre Boulenger (d)[c] ;
-1970-1974 : Pierre Charbonneau[d],[7] ;
-1975-1978 : Pr Pierre Denoix[e],[7] ;
+1970-1974 : Pierre Charbonneau[d], ;
+1975-1978 : Pr Pierre Denoix[e], ;
 1978-1980 : Jean-Charles Sournia[f] ;
 1980-1981 : Jean Choussat (d)[g] ;
 1981-1986 : Pr Jacques Roux[h] ;
 1986-1997 : Dr Jean-François Girard[i] ;
-1997-2000 : Pr Joël Ménard[j],[8] ;
+1997-2000 : Pr Joël Ménard[j], ;
 2000-2003 : Pr Lucien Abenhaim[k] ;
 2003-2005 : Pr William Dab (d)[l] ;
 2005-2011 : Pr Didier Houssin (d)[m] ;
@@ -652,46 +707,82 @@
 2013-2018 : Pr Benoît Vallet (d)[o] ;
 2018-2023 : Pr Jérôme Salomon[p] ;
 2023-2023 : Pr Christian Rabaud[q] ;
-à compter du 20 septembre 2023 : Dr. Grégory Emery[9].
-Directeurs généraux adjoints de la Santé
-Jusqu'en 2015 : Françoise Weber ;
+à compter du 20 septembre 2023 : Dr. Grégory Emery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Direction_générale_de_la_Santé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Direction_g%C3%A9n%C3%A9rale_de_la_Sant%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Direction générale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Directeurs généraux adjoints de la Santé</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Jusqu'en 2015 : Françoise Weber ;
 2015-2019 : Anne-Claire Amprou ;
 2019-2022 : Maurice-Pierre Planel ;
 Depuis le 1er février 2022 : Dr Grégory Emery.</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Direction_g%C3%A9n%C3%A9rale_de_la_Sant%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Direction_générale_de_la_Santé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Direction_g%C3%A9n%C3%A9rale_de_la_Sant%C3%A9</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Chiffres-clés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>308 agents fin 2015 dont 70 % de femmes contre 300 agents en 2016.
 Son budget 2016 était de 436 millions d'euros (contre 440 en 2015).
 59 % du budget sont reversés aux agences nationales de sécurité sanitaire en 2016.
-26 % aux Agences régionales de santé pour l'année 2016[10].
-14,17 millions d'euros ont été versés aux associations en 2016[11].</t>
+26 % aux Agences régionales de santé pour l'année 2016.
+14,17 millions d'euros ont été versés aux associations en 2016.</t>
         </is>
       </c>
     </row>
